--- a/experimental_data/raw_data/wynne/Wynne1989.xlsx
+++ b/experimental_data/raw_data/wynne/Wynne1989.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="150" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="150" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Wynne1989" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="35">
   <si>
     <t>page</t>
   </si>
@@ -110,7 +110,16 @@
     <t>Corrected Table</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
     <t>bodyweight</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
 </sst>
 </file>
@@ -118,11 +127,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.0" numFmtId="165"/>
-    <numFmt formatCode="0.00" numFmtId="166"/>
-    <numFmt formatCode="#,##0.00" numFmtId="167"/>
-    <numFmt formatCode="0" numFmtId="168"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -201,7 +210,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -210,171 +219,155 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellXfs count="29">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="167" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="168" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -440,23 +433,23 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>652320</xdr:colOff>
+      <xdr:colOff>679320</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Graphics 1"/>
+        <xdr:cNvPr id="0" name="Graphics 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -467,8 +460,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14761800" y="7399080"/>
-          <a:ext cx="5058720" cy="3571920"/>
+          <a:off x="14788800" y="7390080"/>
+          <a:ext cx="5058360" cy="3571560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -483,19 +476,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
+      <xdr:colOff>612000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>788400</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="1" name="Graphics 2"/>
+        <xdr:cNvPr id="1" name="Graphics 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -506,8 +499,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14694480" y="3654000"/>
-          <a:ext cx="5080320" cy="3672720"/>
+          <a:off x="14721480" y="3645000"/>
+          <a:ext cx="5079960" cy="3672360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -522,19 +515,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>545400</xdr:colOff>
+      <xdr:colOff>572400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>189720</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="2" name="Graphics 3"/>
+        <xdr:cNvPr id="2" name="Graphics 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -545,8 +538,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14654880" y="0"/>
-          <a:ext cx="5334120" cy="3537720"/>
+          <a:off x="14681880" y="0"/>
+          <a:ext cx="5333760" cy="3537360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -561,19 +554,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>278640</xdr:colOff>
+      <xdr:colOff>305640</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1098000</xdr:colOff>
+      <xdr:colOff>1124640</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="3" name="Graphics 4"/>
+        <xdr:cNvPr id="3" name="Graphics 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -584,8 +577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="278640" y="11445480"/>
-          <a:ext cx="7542000" cy="4320360"/>
+          <a:off x="305640" y="11436480"/>
+          <a:ext cx="7541640" cy="4320000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -600,19 +593,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>93240</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>639360</xdr:colOff>
+      <xdr:colOff>666000</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="4" name="Graphics 5"/>
+        <xdr:cNvPr id="4" name="Graphics 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -623,8 +616,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7965000" y="11417040"/>
-          <a:ext cx="7596720" cy="4377600"/>
+          <a:off x="7992000" y="11408040"/>
+          <a:ext cx="7596360" cy="4377240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -639,19 +632,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>324360</xdr:colOff>
+      <xdr:colOff>351360</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>499320</xdr:colOff>
+      <xdr:colOff>525960</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="5" name="Graphics 6"/>
+        <xdr:cNvPr id="5" name="Graphics 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -662,8 +655,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16059600" y="11426040"/>
-          <a:ext cx="3426120" cy="4455000"/>
+          <a:off x="16086600" y="11417040"/>
+          <a:ext cx="3425760" cy="4454640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -678,19 +671,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>392040</xdr:colOff>
+      <xdr:colOff>419040</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>930240</xdr:colOff>
+      <xdr:colOff>956880</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="6" name="Graphics 7"/>
+        <xdr:cNvPr id="6" name="Graphics 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -701,8 +694,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="392040" y="15902640"/>
-          <a:ext cx="7260840" cy="4645800"/>
+          <a:off x="419040" y="15893640"/>
+          <a:ext cx="7260480" cy="4645440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -717,19 +710,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>126720</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>604080</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="7" name="Graphics 8"/>
+        <xdr:cNvPr id="7" name="Graphics 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -740,8 +733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7998480" y="15919200"/>
-          <a:ext cx="7527960" cy="5112720"/>
+          <a:off x="8025480" y="15910200"/>
+          <a:ext cx="7527600" cy="5112360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -756,19 +749,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>114480</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:colOff>141120</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>151560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="8" name="Graphics 9"/>
+        <xdr:cNvPr id="8" name="Graphics 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -779,8 +772,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15772680" y="15871680"/>
-          <a:ext cx="4141080" cy="5175360"/>
+          <a:off x="15799680" y="15862680"/>
+          <a:ext cx="4140720" cy="5175000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -802,8 +795,8 @@
   </sheetPr>
   <dimension ref="A1:R203"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A131" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I203" activeCellId="0" pane="topLeft" sqref="A138:I203"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A138" activeCellId="0" sqref="A138:J203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -822,7 +815,7 @@
     <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="47.4" outlineLevel="0" r="1" s="4">
+    <row r="1" s="4" customFormat="true" ht="47.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +861,7 @@
       </c>
       <c r="P1" s="0"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="8">
+    <row r="2" s="8" customFormat="true" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -914,7 +907,7 @@
       </c>
       <c r="P2" s="0"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>145</v>
       </c>
@@ -963,7 +956,7 @@
         <v>1.35528525296017</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>145</v>
       </c>
@@ -1012,7 +1005,7 @@
         <v>1.35271276595745</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>145</v>
       </c>
@@ -1061,7 +1054,7 @@
         <v>1.35322876817139</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>145</v>
       </c>
@@ -1110,7 +1103,7 @@
         <v>1.35473901098901</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>145</v>
       </c>
@@ -1159,7 +1152,7 @@
         <v>1.35282545242265</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>145</v>
       </c>
@@ -1208,7 +1201,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>145</v>
       </c>
@@ -1257,7 +1250,7 @@
         <v>1.39501287553648</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>145</v>
       </c>
@@ -1306,7 +1299,7 @@
         <v>1.36747393744988</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>145</v>
       </c>
@@ -1355,7 +1348,7 @@
         <v>1.17755102040816</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>145</v>
       </c>
@@ -1404,7 +1397,7 @@
         <v>2.23334123222749</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>145</v>
       </c>
@@ -1453,7 +1446,7 @@
         <v>0.983512064343164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>145</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>1.35563674321503</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>145</v>
       </c>
@@ -1551,7 +1544,7 @@
         <v>1.26003568242641</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>145</v>
       </c>
@@ -1600,7 +1593,7 @@
         <v>1.35471402214022</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>145</v>
       </c>
@@ -1649,7 +1642,7 @@
         <v>1.35412844036697</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>145</v>
       </c>
@@ -1698,7 +1691,7 @@
         <v>1.31975768872321</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="n">
         <v>146</v>
       </c>
@@ -1747,7 +1740,7 @@
         <v>1.22995283018868</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>146</v>
       </c>
@@ -1796,7 +1789,7 @@
         <v>1.50716049382716</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>146</v>
       </c>
@@ -1845,7 +1838,7 @@
         <v>1.35929152148664</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>146</v>
       </c>
@@ -1894,7 +1887,7 @@
         <v>1.34987405541562</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>146</v>
       </c>
@@ -1943,7 +1936,7 @@
         <v>1.35290459363958</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>146</v>
       </c>
@@ -1992,7 +1985,7 @@
         <v>1.30993902439024</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>146</v>
       </c>
@@ -2041,7 +2034,7 @@
         <v>2.01434927697442</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>146</v>
       </c>
@@ -2090,7 +2083,7 @@
         <v>0.930940627084723</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>146</v>
       </c>
@@ -2139,7 +2132,7 @@
         <v>1.34716940671909</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>146</v>
       </c>
@@ -2188,7 +2181,7 @@
         <v>1.35786379928315</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>146</v>
       </c>
@@ -2237,7 +2230,7 @@
         <v>1.03150183150183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>146</v>
       </c>
@@ -2286,7 +2279,7 @@
         <v>1.24488372093023</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>146</v>
       </c>
@@ -2335,7 +2328,7 @@
         <v>1.91658688865765</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>146</v>
       </c>
@@ -2384,7 +2377,7 @@
         <v>1.35614194722475</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>146</v>
       </c>
@@ -2433,7 +2426,7 @@
         <v>1.35709270927093</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>146</v>
       </c>
@@ -2482,7 +2475,7 @@
         <v>1.35643652561247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>146</v>
       </c>
@@ -2531,7 +2524,7 @@
         <v>1.33872053872054</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>146</v>
       </c>
@@ -2580,7 +2573,7 @@
         <v>1.36535087719298</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>146</v>
       </c>
@@ -2629,7 +2622,7 @@
         <v>1.34444444444444</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>146</v>
       </c>
@@ -2678,7 +2671,7 @@
         <v>1.35617728531856</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>146</v>
       </c>
@@ -2727,7 +2720,7 @@
         <v>1.617</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>146</v>
       </c>
@@ -2776,7 +2769,7 @@
         <v>1.1248134991119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>146</v>
       </c>
@@ -2825,7 +2818,7 @@
         <v>1.34820772058824</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>146</v>
       </c>
@@ -2874,7 +2867,7 @@
         <v>1.34600522193212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>146</v>
       </c>
@@ -2923,7 +2916,7 @@
         <v>1.35511991657977</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="16" t="n">
         <v>147</v>
       </c>
@@ -2972,7 +2965,7 @@
         <v>1.3473786407767</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>147</v>
       </c>
@@ -3021,7 +3014,7 @@
         <v>1.35542503863988</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>147</v>
       </c>
@@ -3070,7 +3063,7 @@
         <v>1.84157608695652</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>147</v>
       </c>
@@ -3119,7 +3112,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
         <v>147</v>
       </c>
@@ -3168,7 +3161,7 @@
         <v>1.34534161490683</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
         <v>147</v>
       </c>
@@ -3217,7 +3210,7 @@
         <v>1.60605134474328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
         <v>147</v>
       </c>
@@ -3266,7 +3259,7 @@
         <v>1.13824468085106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
         <v>147</v>
       </c>
@@ -3315,7 +3308,7 @@
         <v>1.34411036036036</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="n">
         <v>147</v>
       </c>
@@ -3364,7 +3357,7 @@
         <v>1.34095613048369</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="n">
         <v>147</v>
       </c>
@@ -3413,7 +3406,7 @@
         <v>1.61749082007344</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="n">
         <v>147</v>
       </c>
@@ -3462,7 +3455,7 @@
         <v>1.34274193548387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="n">
         <v>147</v>
       </c>
@@ -3511,7 +3504,7 @@
         <v>1.12568367346939</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>147</v>
       </c>
@@ -3560,7 +3553,7 @@
         <v>1.35049356223176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
         <v>147</v>
       </c>
@@ -3609,7 +3602,7 @@
         <v>1.35120310478655</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="n">
         <v>147</v>
       </c>
@@ -3658,7 +3651,7 @@
         <v>1.29334841628959</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="n">
         <v>147</v>
       </c>
@@ -3707,7 +3700,7 @@
         <v>1.35194640338505</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="n">
         <v>147</v>
       </c>
@@ -3756,7 +3749,7 @@
         <v>1.37332209106239</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="n">
         <v>147</v>
       </c>
@@ -3805,7 +3798,7 @@
         <v>1.38402219140083</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="n">
         <v>147</v>
       </c>
@@ -3854,7 +3847,7 @@
         <v>1.15071770334928</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="n">
         <v>147</v>
       </c>
@@ -3903,7 +3896,7 @@
         <v>0.90507393715342</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="n">
         <v>147</v>
       </c>
@@ -3952,7 +3945,7 @@
         <v>1.16109022556391</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="n">
         <v>147</v>
       </c>
@@ -4001,7 +3994,7 @@
         <v>1.04294779938588</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="n">
         <v>147</v>
       </c>
@@ -4050,7 +4043,7 @@
         <v>1.34715789473684</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="n">
         <v>147</v>
       </c>
@@ -4099,7 +4092,7 @@
         <v>1.75394594594595</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="s">
         <v>27</v>
       </c>
@@ -4110,7 +4103,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
+    <row r="135" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="27" t="s">
         <v>30</v>
       </c>
@@ -4123,7 +4116,7 @@
       <c r="H135" s="28"/>
       <c r="I135" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
+    <row r="136" customFormat="false" ht="12.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="28"/>
       <c r="B136" s="28"/>
       <c r="C136" s="28"/>
@@ -4134,2148 +4127,2349 @@
       <c r="H136" s="28"/>
       <c r="I136" s="28"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="46.25" outlineLevel="0" r="137">
+    <row r="137" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H137" s="3" t="s">
+      <c r="I137" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I137" s="2" t="s">
+      <c r="J137" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="D138" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="E138" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E138" s="6" t="s">
+      <c r="F138" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F138" s="5" t="s">
+      <c r="G138" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G138" s="5" t="s">
+      <c r="H138" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H138" s="7" t="s">
+      <c r="I138" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I138" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
+      <c r="J138" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="B139" s="9" t="n">
+      <c r="B139" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D139" s="9" t="n">
+      <c r="D139" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="9" t="n">
         <v>1067</v>
       </c>
-      <c r="E139" s="10" t="n">
+      <c r="F139" s="10" t="n">
         <v>20.5</v>
       </c>
-      <c r="F139" s="25" t="n">
-        <f aca="false">G139*I139</f>
+      <c r="G139" s="25" t="n">
+        <f aca="false">H139*J139</f>
         <v>1259.58048780488</v>
       </c>
-      <c r="G139" s="9" t="n">
+      <c r="H139" s="9" t="n">
         <v>24.2</v>
       </c>
-      <c r="H139" s="11" t="n">
-        <f aca="false">F139/D139</f>
+      <c r="I139" s="11" t="n">
+        <f aca="false">G139/E139</f>
         <v>1.18048780487805</v>
       </c>
-      <c r="I139" s="10" t="n">
-        <f aca="false">D139/E139</f>
+      <c r="J139" s="10" t="n">
+        <f aca="false">E139/F139</f>
         <v>52.0487804878049</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="B140" s="9" t="n">
+      <c r="B140" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C140" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="C140" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D140" s="9" t="n">
+      <c r="D140" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" s="9" t="n">
         <v>1211</v>
       </c>
-      <c r="E140" s="10" t="n">
+      <c r="F140" s="10" t="n">
         <v>17.3</v>
       </c>
-      <c r="F140" s="25" t="n">
-        <f aca="false">G140*I140</f>
+      <c r="G140" s="25" t="n">
+        <f aca="false">H140*J140</f>
         <v>1526</v>
       </c>
-      <c r="G140" s="9" t="n">
+      <c r="H140" s="9" t="n">
         <v>21.8</v>
       </c>
-      <c r="H140" s="11" t="n">
-        <f aca="false">F140/D140</f>
+      <c r="I140" s="11" t="n">
+        <f aca="false">G140/E140</f>
         <v>1.26011560693642</v>
       </c>
-      <c r="I140" s="10" t="n">
-        <f aca="false">D140/E140</f>
+      <c r="J140" s="10" t="n">
+        <f aca="false">E140/F140</f>
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B141" s="9" t="n">
+      <c r="B141" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="C141" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D141" s="9" t="n">
+      <c r="D141" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="9" t="n">
         <v>1291</v>
       </c>
-      <c r="E141" s="10" t="n">
+      <c r="F141" s="10" t="n">
         <v>16.6</v>
       </c>
-      <c r="F141" s="25" t="n">
-        <f aca="false">G141*I141</f>
+      <c r="G141" s="25" t="n">
+        <f aca="false">H141*J141</f>
         <v>1734.29518072289</v>
       </c>
-      <c r="G141" s="9" t="n">
+      <c r="H141" s="9" t="n">
         <v>22.3</v>
       </c>
-      <c r="H141" s="11" t="n">
-        <f aca="false">F141/D141</f>
+      <c r="I141" s="11" t="n">
+        <f aca="false">G141/E141</f>
         <v>1.3433734939759</v>
       </c>
-      <c r="I141" s="10" t="n">
-        <f aca="false">D141/E141</f>
+      <c r="J141" s="10" t="n">
+        <f aca="false">E141/F141</f>
         <v>77.7710843373494</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B142" s="9" t="n">
+      <c r="B142" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="C142" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D142" s="9" t="n">
+      <c r="D142" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="9" t="n">
         <v>1578</v>
       </c>
-      <c r="E142" s="10" t="n">
+      <c r="F142" s="10" t="n">
         <v>20.6</v>
       </c>
-      <c r="F142" s="25" t="n">
-        <f aca="false">G142*I142</f>
+      <c r="G142" s="25" t="n">
+        <f aca="false">H142*J142</f>
         <v>1968.66990291262</v>
       </c>
-      <c r="G142" s="9" t="n">
+      <c r="H142" s="9" t="n">
         <v>25.7</v>
       </c>
-      <c r="H142" s="11" t="n">
-        <f aca="false">F142/D142</f>
+      <c r="I142" s="11" t="n">
+        <f aca="false">G142/E142</f>
         <v>1.24757281553398</v>
       </c>
-      <c r="I142" s="10" t="n">
-        <f aca="false">D142/E142</f>
+      <c r="J142" s="10" t="n">
+        <f aca="false">E142/F142</f>
         <v>76.6019417475728</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="B143" s="9" t="n">
+      <c r="B143" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C143" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="C143" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D143" s="9" t="n">
+      <c r="D143" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E143" s="9" t="n">
         <v>1769</v>
       </c>
-      <c r="E143" s="10" t="n">
+      <c r="F143" s="10" t="n">
         <v>20.4</v>
       </c>
-      <c r="F143" s="25" t="n">
-        <f aca="false">G143*I143</f>
+      <c r="G143" s="25" t="n">
+        <f aca="false">H143*J143</f>
         <v>2367.33823529412</v>
       </c>
-      <c r="G143" s="9" t="n">
+      <c r="H143" s="9" t="n">
         <v>27.3</v>
       </c>
-      <c r="H143" s="11" t="n">
-        <f aca="false">F143/D143</f>
+      <c r="I143" s="11" t="n">
+        <f aca="false">G143/E143</f>
         <v>1.33823529411765</v>
       </c>
-      <c r="I143" s="10" t="n">
-        <f aca="false">D143/E143</f>
+      <c r="J143" s="10" t="n">
+        <f aca="false">E143/F143</f>
         <v>86.7156862745098</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B144" s="9" t="n">
+      <c r="B144" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="C144" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D144" s="9" t="n">
+      <c r="D144" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="9" t="n">
         <v>1485</v>
       </c>
-      <c r="E144" s="10" t="n">
+      <c r="F144" s="10" t="n">
         <v>25.6</v>
       </c>
-      <c r="F144" s="25" t="n">
-        <f aca="false">G144*I144</f>
+      <c r="G144" s="25" t="n">
+        <f aca="false">H144*J144</f>
         <v>1577.8125</v>
       </c>
-      <c r="G144" s="9" t="n">
+      <c r="H144" s="9" t="n">
         <v>27.2</v>
       </c>
-      <c r="H144" s="11" t="n">
-        <f aca="false">F144/D144</f>
+      <c r="I144" s="11" t="n">
+        <f aca="false">G144/E144</f>
         <v>1.0625</v>
       </c>
-      <c r="I144" s="10" t="n">
-        <f aca="false">D144/E144</f>
+      <c r="J144" s="10" t="n">
+        <f aca="false">E144/F144</f>
         <v>58.0078125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B145" s="9" t="n">
+      <c r="B145" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="C145" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D145" s="9" t="n">
+      <c r="D145" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" s="9" t="n">
         <v>1491</v>
       </c>
-      <c r="E145" s="10" t="n">
+      <c r="F145" s="10" t="n">
         <v>19.6</v>
       </c>
-      <c r="F145" s="25" t="n">
-        <f aca="false">G145*I145</f>
+      <c r="G145" s="25" t="n">
+        <f aca="false">H145*J145</f>
         <v>1574.67857142857</v>
       </c>
-      <c r="G145" s="9" t="n">
+      <c r="H145" s="9" t="n">
         <v>20.7</v>
       </c>
-      <c r="H145" s="11" t="n">
-        <f aca="false">F145/D145</f>
+      <c r="I145" s="11" t="n">
+        <f aca="false">G145/E145</f>
         <v>1.05612244897959</v>
       </c>
-      <c r="I145" s="10" t="n">
-        <f aca="false">D145/E145</f>
+      <c r="J145" s="10" t="n">
+        <f aca="false">E145/F145</f>
         <v>76.0714285714286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B146" s="9" t="n">
+      <c r="B146" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C146" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="C146" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D146" s="9" t="n">
+      <c r="D146" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="9" t="n">
         <v>1916</v>
       </c>
-      <c r="E146" s="10" t="n">
+      <c r="F146" s="10" t="n">
         <v>29.1</v>
       </c>
-      <c r="F146" s="25" t="n">
-        <f aca="false">G146*I146</f>
+      <c r="G146" s="25" t="n">
+        <f aca="false">H146*J146</f>
         <v>1692.13745704467</v>
       </c>
-      <c r="G146" s="9" t="n">
+      <c r="H146" s="9" t="n">
         <v>25.7</v>
       </c>
-      <c r="H146" s="11" t="n">
-        <f aca="false">F146/D146</f>
+      <c r="I146" s="11" t="n">
+        <f aca="false">G146/E146</f>
         <v>0.883161512027491</v>
       </c>
-      <c r="I146" s="10" t="n">
-        <f aca="false">D146/E146</f>
+      <c r="J146" s="10" t="n">
+        <f aca="false">E146/F146</f>
         <v>65.8419243986254</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B147" s="9" t="n">
+      <c r="B147" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C147" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="C147" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D147" s="9" t="n">
+      <c r="D147" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="9" t="n">
         <v>1731</v>
       </c>
-      <c r="E147" s="10" t="n">
+      <c r="F147" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="F147" s="25" t="n">
-        <f aca="false">G147*I147</f>
+      <c r="G147" s="25" t="n">
+        <f aca="false">H147*J147</f>
         <v>1986.52857142857</v>
       </c>
-      <c r="G147" s="9" t="n">
+      <c r="H147" s="9" t="n">
         <v>24.1</v>
       </c>
-      <c r="H147" s="11" t="n">
-        <f aca="false">F147/D147</f>
+      <c r="I147" s="11" t="n">
+        <f aca="false">G147/E147</f>
         <v>1.14761904761905</v>
       </c>
-      <c r="I147" s="10" t="n">
-        <f aca="false">D147/E147</f>
+      <c r="J147" s="10" t="n">
+        <f aca="false">E147/F147</f>
         <v>82.4285714285714</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B148" s="9" t="n">
+      <c r="B148" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C148" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="C148" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148" s="9" t="n">
+      <c r="D148" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" s="9" t="n">
         <v>1193</v>
       </c>
-      <c r="E148" s="10" t="n">
+      <c r="F148" s="10" t="n">
         <v>21.7</v>
       </c>
-      <c r="F148" s="25" t="n">
-        <f aca="false">G148*I148</f>
+      <c r="G148" s="25" t="n">
+        <f aca="false">H148*J148</f>
         <v>1138.02304147465</v>
       </c>
-      <c r="G148" s="9" t="n">
+      <c r="H148" s="9" t="n">
         <v>20.7</v>
       </c>
-      <c r="H148" s="11" t="n">
-        <f aca="false">F148/D148</f>
+      <c r="I148" s="11" t="n">
+        <f aca="false">G148/E148</f>
         <v>0.953917050691244</v>
       </c>
-      <c r="I148" s="10" t="n">
-        <f aca="false">D148/E148</f>
+      <c r="J148" s="10" t="n">
+        <f aca="false">E148/F148</f>
         <v>54.9769585253456</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B149" s="9" t="n">
+      <c r="B149" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="C149" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="9" t="n">
+      <c r="D149" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E149" s="9" t="n">
         <v>1276</v>
       </c>
-      <c r="E149" s="10" t="n">
+      <c r="F149" s="10" t="n">
         <v>20.4</v>
       </c>
-      <c r="F149" s="25" t="n">
-        <f aca="false">G149*I149</f>
+      <c r="G149" s="25" t="n">
+        <f aca="false">H149*J149</f>
         <v>2014.07843137255</v>
       </c>
-      <c r="G149" s="9" t="n">
+      <c r="H149" s="9" t="n">
         <v>32.2</v>
       </c>
-      <c r="H149" s="11" t="n">
-        <f aca="false">F149/D149</f>
+      <c r="I149" s="11" t="n">
+        <f aca="false">G149/E149</f>
         <v>1.57843137254902</v>
       </c>
-      <c r="I149" s="10" t="n">
-        <f aca="false">D149/E149</f>
+      <c r="J149" s="10" t="n">
+        <f aca="false">E149/F149</f>
         <v>62.5490196078431</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B150" s="9" t="n">
+      <c r="B150" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C150" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="C150" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D150" s="9" t="n">
+      <c r="D150" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" s="9" t="n">
         <v>1170</v>
       </c>
-      <c r="E150" s="10" t="n">
+      <c r="F150" s="10" t="n">
         <v>19.8</v>
       </c>
-      <c r="F150" s="25" t="n">
-        <f aca="false">G150*I150</f>
+      <c r="G150" s="25" t="n">
+        <f aca="false">H150*J150</f>
         <v>1294.09090909091</v>
       </c>
-      <c r="G150" s="9" t="n">
+      <c r="H150" s="9" t="n">
         <v>21.9</v>
       </c>
-      <c r="H150" s="11" t="n">
-        <f aca="false">F150/D150</f>
+      <c r="I150" s="11" t="n">
+        <f aca="false">G150/E150</f>
         <v>1.10606060606061</v>
       </c>
-      <c r="I150" s="10" t="n">
-        <f aca="false">D150/E150</f>
+      <c r="J150" s="10" t="n">
+        <f aca="false">E150/F150</f>
         <v>59.0909090909091</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B151" s="9" t="n">
+      <c r="B151" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C151" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="C151" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D151" s="9" t="n">
+      <c r="D151" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" s="9" t="n">
         <v>1130</v>
       </c>
-      <c r="E151" s="10" t="n">
+      <c r="F151" s="10" t="n">
         <v>15.9</v>
       </c>
-      <c r="F151" s="25" t="n">
-        <f aca="false">G151*I151</f>
+      <c r="G151" s="25" t="n">
+        <f aca="false">H151*J151</f>
         <v>1513.77358490566</v>
       </c>
-      <c r="G151" s="9" t="n">
+      <c r="H151" s="9" t="n">
         <v>21.3</v>
       </c>
-      <c r="H151" s="11" t="n">
-        <f aca="false">F151/D151</f>
+      <c r="I151" s="11" t="n">
+        <f aca="false">G151/E151</f>
         <v>1.33962264150943</v>
       </c>
-      <c r="I151" s="10" t="n">
-        <f aca="false">D151/E151</f>
+      <c r="J151" s="10" t="n">
+        <f aca="false">E151/F151</f>
         <v>71.0691823899371</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B152" s="9" t="n">
+      <c r="B152" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="C152" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D152" s="9" t="n">
+      <c r="D152" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="9" t="n">
         <v>1121</v>
       </c>
-      <c r="E152" s="10" t="n">
+      <c r="F152" s="10" t="n">
         <v>19.7</v>
       </c>
-      <c r="F152" s="25" t="n">
-        <f aca="false">G152*I152</f>
+      <c r="G152" s="25" t="n">
+        <f aca="false">H152*J152</f>
         <v>1462.42131979695</v>
       </c>
-      <c r="G152" s="9" t="n">
+      <c r="H152" s="9" t="n">
         <v>25.7</v>
       </c>
-      <c r="H152" s="11" t="n">
-        <f aca="false">F152/D152</f>
+      <c r="I152" s="11" t="n">
+        <f aca="false">G152/E152</f>
         <v>1.30456852791878</v>
       </c>
-      <c r="I152" s="10" t="n">
-        <f aca="false">D152/E152</f>
+      <c r="J152" s="10" t="n">
+        <f aca="false">E152/F152</f>
         <v>56.9035532994924</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B153" s="9" t="n">
+      <c r="B153" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C153" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="C153" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" s="9" t="n">
+      <c r="D153" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="9" t="n">
         <v>1260</v>
       </c>
-      <c r="E153" s="10" t="n">
+      <c r="F153" s="10" t="n">
         <v>29.6</v>
       </c>
-      <c r="F153" s="25" t="n">
-        <f aca="false">G153*I153</f>
+      <c r="G153" s="25" t="n">
+        <f aca="false">H153*J153</f>
         <v>1025.87837837838</v>
       </c>
-      <c r="G153" s="9" t="n">
+      <c r="H153" s="9" t="n">
         <v>24.1</v>
       </c>
-      <c r="H153" s="11" t="n">
-        <f aca="false">F153/D153</f>
+      <c r="I153" s="11" t="n">
+        <f aca="false">G153/E153</f>
         <v>0.814189189189189</v>
       </c>
-      <c r="I153" s="10" t="n">
-        <f aca="false">D153/E153</f>
+      <c r="J153" s="10" t="n">
+        <f aca="false">E153/F153</f>
         <v>42.5675675675676</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
-      <c r="A154" s="29" t="n">
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B154" s="29" t="n">
+      <c r="B154" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C154" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="C154" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" s="29" t="n">
+      <c r="D154" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E154" s="9" t="n">
         <v>1445</v>
       </c>
-      <c r="E154" s="30" t="n">
+      <c r="F154" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="F154" s="31" t="n">
-        <f aca="false">G154*I154</f>
+      <c r="G154" s="25" t="n">
+        <f aca="false">H154*J154</f>
         <v>1470.13043478261</v>
       </c>
-      <c r="G154" s="29" t="n">
+      <c r="H154" s="9" t="n">
         <v>23.4</v>
       </c>
-      <c r="H154" s="32" t="n">
-        <f aca="false">F154/D154</f>
+      <c r="I154" s="11" t="n">
+        <f aca="false">G154/E154</f>
         <v>1.01739130434783</v>
       </c>
-      <c r="I154" s="30" t="n">
-        <f aca="false">D154/E154</f>
+      <c r="J154" s="10" t="n">
+        <f aca="false">E154/F154</f>
         <v>62.8260869565217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
-      <c r="A155" s="29" t="n">
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B155" s="29" t="n">
+      <c r="B155" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C155" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="C155" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" s="29" t="n">
+      <c r="D155" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E155" s="9" t="n">
         <v>1043</v>
       </c>
-      <c r="E155" s="30" t="n">
+      <c r="F155" s="10" t="n">
         <v>18.3</v>
       </c>
-      <c r="F155" s="31" t="n">
-        <f aca="false">G155*I155</f>
+      <c r="G155" s="25" t="n">
+        <f aca="false">H155*J155</f>
         <v>1145.59016393443</v>
       </c>
-      <c r="G155" s="29" t="n">
+      <c r="H155" s="9" t="n">
         <v>20.1</v>
       </c>
-      <c r="H155" s="32" t="n">
-        <f aca="false">F155/D155</f>
+      <c r="I155" s="11" t="n">
+        <f aca="false">G155/E155</f>
         <v>1.09836065573771</v>
       </c>
-      <c r="I155" s="30" t="n">
-        <f aca="false">D155/E155</f>
+      <c r="J155" s="10" t="n">
+        <f aca="false">E155/F155</f>
         <v>56.9945355191257</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B156" s="9" t="n">
+      <c r="B156" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="C156" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D156" s="9" t="n">
+      <c r="D156" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E156" s="9" t="n">
         <v>1568</v>
       </c>
-      <c r="E156" s="10" t="n">
+      <c r="F156" s="10" t="n">
         <v>20.6</v>
       </c>
-      <c r="F156" s="25" t="n">
-        <f aca="false">G156*I156</f>
+      <c r="G156" s="25" t="n">
+        <f aca="false">H156*J156</f>
         <v>1529.94174757282</v>
       </c>
-      <c r="G156" s="10" t="n">
+      <c r="H156" s="10" t="n">
         <v>20.1</v>
       </c>
-      <c r="H156" s="11" t="n">
-        <f aca="false">F156/D156</f>
+      <c r="I156" s="11" t="n">
+        <f aca="false">G156/E156</f>
         <v>0.975728155339806</v>
       </c>
-      <c r="I156" s="10" t="n">
-        <f aca="false">D156/E156</f>
+      <c r="J156" s="10" t="n">
+        <f aca="false">E156/F156</f>
         <v>76.1165048543689</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B157" s="9" t="n">
+      <c r="B157" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C157" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="C157" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D157" s="9" t="n">
+      <c r="D157" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" s="9" t="n">
         <v>1315</v>
       </c>
-      <c r="E157" s="10" t="n">
+      <c r="F157" s="10" t="n">
         <v>25.8</v>
       </c>
-      <c r="F157" s="25" t="n">
-        <f aca="false">G157*I157</f>
+      <c r="G157" s="25" t="n">
+        <f aca="false">H157*J157</f>
         <v>1167.18992248062</v>
       </c>
-      <c r="G157" s="10" t="n">
+      <c r="H157" s="10" t="n">
         <v>22.9</v>
       </c>
-      <c r="H157" s="11" t="n">
-        <f aca="false">F157/D157</f>
+      <c r="I157" s="11" t="n">
+        <f aca="false">G157/E157</f>
         <v>0.887596899224806</v>
       </c>
-      <c r="I157" s="10" t="n">
-        <f aca="false">D157/E157</f>
+      <c r="J157" s="10" t="n">
+        <f aca="false">E157/F157</f>
         <v>50.968992248062</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B158" s="9" t="n">
+      <c r="B158" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C158" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="C158" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D158" s="9" t="n">
+      <c r="D158" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" s="9" t="n">
         <v>1398</v>
       </c>
-      <c r="E158" s="10" t="n">
+      <c r="F158" s="10" t="n">
         <v>20.9</v>
       </c>
-      <c r="F158" s="25" t="n">
-        <f aca="false">G158*I158</f>
+      <c r="G158" s="25" t="n">
+        <f aca="false">H158*J158</f>
         <v>1612.04784688995</v>
       </c>
-      <c r="G158" s="10" t="n">
+      <c r="H158" s="10" t="n">
         <v>24.1</v>
       </c>
-      <c r="H158" s="11" t="n">
-        <f aca="false">F158/D158</f>
+      <c r="I158" s="11" t="n">
+        <f aca="false">G158/E158</f>
         <v>1.15311004784689</v>
       </c>
-      <c r="I158" s="10" t="n">
-        <f aca="false">D158/E158</f>
+      <c r="J158" s="10" t="n">
+        <f aca="false">E158/F158</f>
         <v>66.8899521531101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B159" s="9" t="n">
+      <c r="B159" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C159" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="C159" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D159" s="9" t="n">
+      <c r="D159" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E159" s="9" t="n">
         <v>1806</v>
       </c>
-      <c r="E159" s="10" t="n">
+      <c r="F159" s="10" t="n">
         <v>23.5</v>
       </c>
-      <c r="F159" s="25" t="n">
-        <f aca="false">G159*I159</f>
+      <c r="G159" s="25" t="n">
+        <f aca="false">H159*J159</f>
         <v>1913.5914893617</v>
       </c>
-      <c r="G159" s="10" t="n">
+      <c r="H159" s="10" t="n">
         <v>24.9</v>
       </c>
-      <c r="H159" s="11" t="n">
-        <f aca="false">F159/D159</f>
+      <c r="I159" s="11" t="n">
+        <f aca="false">G159/E159</f>
         <v>1.05957446808511</v>
       </c>
-      <c r="I159" s="10" t="n">
-        <f aca="false">D159/E159</f>
+      <c r="J159" s="10" t="n">
+        <f aca="false">E159/F159</f>
         <v>76.8510638297872</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B160" s="9" t="n">
+      <c r="B160" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C160" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D160" s="9" t="n">
+      <c r="D160" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="9" t="n">
         <v>1023</v>
       </c>
-      <c r="E160" s="10" t="n">
+      <c r="F160" s="10" t="n">
         <v>20.5</v>
       </c>
-      <c r="F160" s="25" t="n">
-        <f aca="false">G160*I160</f>
+      <c r="G160" s="25" t="n">
+        <f aca="false">H160*J160</f>
         <v>1327.40487804878</v>
       </c>
-      <c r="G160" s="10" t="n">
+      <c r="H160" s="10" t="n">
         <v>26.6</v>
       </c>
-      <c r="H160" s="11" t="n">
-        <f aca="false">F160/D160</f>
+      <c r="I160" s="11" t="n">
+        <f aca="false">G160/E160</f>
         <v>1.29756097560976</v>
       </c>
-      <c r="I160" s="10" t="n">
-        <f aca="false">D160/E160</f>
+      <c r="J160" s="10" t="n">
+        <f aca="false">E160/F160</f>
         <v>49.9024390243902</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B161" s="9" t="n">
+      <c r="B161" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="C161" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D161" s="9" t="n">
+      <c r="D161" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" s="9" t="n">
         <v>1393</v>
       </c>
-      <c r="E161" s="10" t="n">
+      <c r="F161" s="10" t="n">
         <v>24.7</v>
       </c>
-      <c r="F161" s="25" t="n">
-        <f aca="false">G161*I161</f>
+      <c r="G161" s="25" t="n">
+        <f aca="false">H161*J161</f>
         <v>1212.53036437247</v>
       </c>
-      <c r="G161" s="10" t="n">
+      <c r="H161" s="10" t="n">
         <v>21.5</v>
       </c>
-      <c r="H161" s="11" t="n">
-        <f aca="false">F161/D161</f>
+      <c r="I161" s="11" t="n">
+        <f aca="false">G161/E161</f>
         <v>0.870445344129555</v>
       </c>
-      <c r="I161" s="10" t="n">
-        <f aca="false">D161/E161</f>
+      <c r="J161" s="10" t="n">
+        <f aca="false">E161/F161</f>
         <v>56.3967611336032</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B162" s="9" t="n">
+      <c r="B162" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D162" s="9" t="n">
+      <c r="D162" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E162" s="9" t="n">
         <v>1604</v>
       </c>
-      <c r="E162" s="10" t="n">
+      <c r="F162" s="10" t="n">
         <v>22.9</v>
       </c>
-      <c r="F162" s="25" t="n">
-        <f aca="false">G162*I162</f>
+      <c r="G162" s="25" t="n">
+        <f aca="false">H162*J162</f>
         <v>2024.26200873362</v>
       </c>
-      <c r="G162" s="10" t="n">
+      <c r="H162" s="10" t="n">
         <v>28.9</v>
       </c>
-      <c r="H162" s="11" t="n">
-        <f aca="false">F162/D162</f>
+      <c r="I162" s="11" t="n">
+        <f aca="false">G162/E162</f>
         <v>1.26200873362445</v>
       </c>
-      <c r="I162" s="10" t="n">
-        <f aca="false">D162/E162</f>
+      <c r="J162" s="10" t="n">
+        <f aca="false">E162/F162</f>
         <v>70.0436681222707</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="B163" s="9" t="n">
+      <c r="B163" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C163" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="C163" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D163" s="9" t="n">
+      <c r="D163" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E163" s="9" t="n">
         <v>1461</v>
       </c>
-      <c r="E163" s="10" t="n">
+      <c r="F163" s="10" t="n">
         <v>17.6</v>
       </c>
-      <c r="F163" s="25" t="n">
-        <f aca="false">G163*I163</f>
+      <c r="G163" s="25" t="n">
+        <f aca="false">H163*J163</f>
         <v>1892.65909090909</v>
       </c>
-      <c r="G163" s="10" t="n">
+      <c r="H163" s="10" t="n">
         <v>22.8</v>
       </c>
-      <c r="H163" s="11" t="n">
-        <f aca="false">F163/D163</f>
+      <c r="I163" s="11" t="n">
+        <f aca="false">G163/E163</f>
         <v>1.29545454545455</v>
       </c>
-      <c r="I163" s="10" t="n">
-        <f aca="false">D163/E163</f>
+      <c r="J163" s="10" t="n">
+        <f aca="false">E163/F163</f>
         <v>83.0113636363636</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="n">
         <v>26</v>
       </c>
-      <c r="B164" s="9" t="n">
+      <c r="B164" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C164" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="C164" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D164" s="9" t="n">
+      <c r="D164" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E164" s="9" t="n">
         <v>1787</v>
       </c>
-      <c r="E164" s="10" t="n">
+      <c r="F164" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="F164" s="25" t="n">
-        <f aca="false">G164*I164</f>
+      <c r="G164" s="25" t="n">
+        <f aca="false">H164*J164</f>
         <v>1898.6875</v>
       </c>
-      <c r="G164" s="10" t="n">
+      <c r="H164" s="10" t="n">
         <v>25.5</v>
       </c>
-      <c r="H164" s="11" t="n">
-        <f aca="false">F164/D164</f>
+      <c r="I164" s="11" t="n">
+        <f aca="false">G164/E164</f>
         <v>1.0625</v>
       </c>
-      <c r="I164" s="10" t="n">
-        <f aca="false">D164/E164</f>
+      <c r="J164" s="10" t="n">
+        <f aca="false">E164/F164</f>
         <v>74.4583333333333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="n">
         <v>27</v>
       </c>
-      <c r="B165" s="9" t="n">
+      <c r="B165" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C165" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="C165" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D165" s="9" t="n">
+      <c r="D165" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E165" s="9" t="n">
         <v>768</v>
       </c>
-      <c r="E165" s="10" t="n">
+      <c r="F165" s="10" t="n">
         <v>14.8</v>
       </c>
-      <c r="F165" s="25" t="n">
-        <f aca="false">G165*I165</f>
+      <c r="G165" s="25" t="n">
+        <f aca="false">H165*J165</f>
         <v>1100.10810810811</v>
       </c>
-      <c r="G165" s="10" t="n">
+      <c r="H165" s="10" t="n">
         <v>21.2</v>
       </c>
-      <c r="H165" s="11" t="n">
-        <f aca="false">F165/D165</f>
+      <c r="I165" s="11" t="n">
+        <f aca="false">G165/E165</f>
         <v>1.43243243243243</v>
       </c>
-      <c r="I165" s="10" t="n">
-        <f aca="false">D165/E165</f>
+      <c r="J165" s="10" t="n">
+        <f aca="false">E165/F165</f>
         <v>51.8918918918919</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="n">
         <v>28</v>
       </c>
-      <c r="B166" s="9" t="n">
+      <c r="B166" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="C166" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D166" s="9" t="n">
+      <c r="D166" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E166" s="9" t="n">
         <v>1325</v>
       </c>
-      <c r="E166" s="10" t="n">
+      <c r="F166" s="10" t="n">
         <v>20.5</v>
       </c>
-      <c r="F166" s="25" t="n">
-        <f aca="false">G166*I166</f>
+      <c r="G166" s="25" t="n">
+        <f aca="false">H166*J166</f>
         <v>1460.73170731707</v>
       </c>
-      <c r="G166" s="10" t="n">
+      <c r="H166" s="10" t="n">
         <v>22.6</v>
       </c>
-      <c r="H166" s="11" t="n">
-        <f aca="false">F166/D166</f>
+      <c r="I166" s="11" t="n">
+        <f aca="false">G166/E166</f>
         <v>1.10243902439024</v>
       </c>
-      <c r="I166" s="10" t="n">
-        <f aca="false">D166/E166</f>
+      <c r="J166" s="10" t="n">
+        <f aca="false">E166/F166</f>
         <v>64.6341463414634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="B167" s="9" t="n">
+      <c r="B167" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="C167" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D167" s="9" t="n">
+      <c r="D167" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E167" s="9" t="n">
         <v>1288</v>
       </c>
-      <c r="E167" s="10" t="n">
+      <c r="F167" s="10" t="n">
         <v>22.8</v>
       </c>
-      <c r="F167" s="25" t="n">
-        <f aca="false">G167*I167</f>
+      <c r="G167" s="25" t="n">
+        <f aca="false">H167*J167</f>
         <v>1299.29824561404</v>
       </c>
-      <c r="G167" s="10" t="n">
+      <c r="H167" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="H167" s="11" t="n">
-        <f aca="false">F167/D167</f>
+      <c r="I167" s="11" t="n">
+        <f aca="false">G167/E167</f>
         <v>1.00877192982456</v>
       </c>
-      <c r="I167" s="10" t="n">
-        <f aca="false">D167/E167</f>
+      <c r="J167" s="10" t="n">
+        <f aca="false">E167/F167</f>
         <v>56.4912280701754</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="B168" s="9" t="n">
+      <c r="B168" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="C168" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D168" s="9" t="n">
+      <c r="D168" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" s="9" t="n">
         <v>1242</v>
       </c>
-      <c r="E168" s="10" t="n">
+      <c r="F168" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="F168" s="25" t="n">
-        <f aca="false">G168*I168</f>
+      <c r="G168" s="25" t="n">
+        <f aca="false">H168*J168</f>
         <v>1490.4</v>
       </c>
-      <c r="G168" s="10" t="n">
+      <c r="H168" s="10" t="n">
         <v>20.4</v>
       </c>
-      <c r="H168" s="11" t="n">
-        <f aca="false">F168/D168</f>
+      <c r="I168" s="11" t="n">
+        <f aca="false">G168/E168</f>
         <v>1.2</v>
       </c>
-      <c r="I168" s="10" t="n">
-        <f aca="false">D168/E168</f>
+      <c r="J168" s="10" t="n">
+        <f aca="false">E168/F168</f>
         <v>73.0588235294118</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="n">
         <v>31</v>
       </c>
-      <c r="B169" s="9" t="n">
+      <c r="B169" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="C169" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="9" t="n">
+      <c r="D169" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169" s="9" t="n">
         <v>1267</v>
       </c>
-      <c r="E169" s="10" t="n">
+      <c r="F169" s="10" t="n">
         <v>15.3</v>
       </c>
-      <c r="F169" s="25" t="n">
-        <f aca="false">G169*I169</f>
+      <c r="G169" s="25" t="n">
+        <f aca="false">H169*J169</f>
         <v>1507.15032679739</v>
       </c>
-      <c r="G169" s="10" t="n">
+      <c r="H169" s="10" t="n">
         <v>18.2</v>
       </c>
-      <c r="H169" s="11" t="n">
-        <f aca="false">F169/D169</f>
+      <c r="I169" s="11" t="n">
+        <f aca="false">G169/E169</f>
         <v>1.18954248366013</v>
       </c>
-      <c r="I169" s="10" t="n">
-        <f aca="false">D169/E169</f>
+      <c r="J169" s="10" t="n">
+        <f aca="false">E169/F169</f>
         <v>82.8104575163399</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="n">
         <v>32</v>
       </c>
-      <c r="B170" s="9" t="n">
+      <c r="B170" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="C170" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D170" s="9" t="n">
+      <c r="D170" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E170" s="9" t="n">
         <v>1324</v>
       </c>
-      <c r="E170" s="10" t="n">
+      <c r="F170" s="10" t="n">
         <v>20.7</v>
       </c>
-      <c r="F170" s="25" t="n">
-        <f aca="false">G170*I170</f>
+      <c r="G170" s="25" t="n">
+        <f aca="false">H170*J170</f>
         <v>1208.86956521739</v>
       </c>
-      <c r="G170" s="10" t="n">
+      <c r="H170" s="10" t="n">
         <v>18.9</v>
       </c>
-      <c r="H170" s="11" t="n">
-        <f aca="false">F170/D170</f>
+      <c r="I170" s="11" t="n">
+        <f aca="false">G170/E170</f>
         <v>0.91304347826087</v>
       </c>
-      <c r="I170" s="10" t="n">
-        <f aca="false">D170/E170</f>
+      <c r="J170" s="10" t="n">
+        <f aca="false">E170/F170</f>
         <v>63.9613526570048</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="n">
         <v>33</v>
       </c>
-      <c r="B171" s="9" t="n">
+      <c r="B171" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C171" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="C171" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D171" s="9" t="n">
+      <c r="D171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E171" s="9" t="n">
         <v>994</v>
       </c>
-      <c r="E171" s="10" t="n">
+      <c r="F171" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="F171" s="25" t="n">
-        <f aca="false">G171*I171</f>
+      <c r="G171" s="25" t="n">
+        <f aca="false">H171*J171</f>
         <v>1199.9</v>
       </c>
-      <c r="G171" s="10" t="n">
+      <c r="H171" s="10" t="n">
         <v>16.9</v>
       </c>
-      <c r="H171" s="11" t="n">
-        <f aca="false">F171/D171</f>
+      <c r="I171" s="11" t="n">
+        <f aca="false">G171/E171</f>
         <v>1.20714285714286</v>
       </c>
-      <c r="I171" s="10" t="n">
-        <f aca="false">D171/E171</f>
+      <c r="J171" s="10" t="n">
+        <f aca="false">E171/F171</f>
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="n">
         <v>34</v>
       </c>
-      <c r="B172" s="9" t="n">
+      <c r="B172" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C172" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="C172" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D172" s="9" t="n">
+      <c r="D172" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E172" s="9" t="n">
         <v>1415</v>
       </c>
-      <c r="E172" s="10" t="n">
+      <c r="F172" s="10" t="n">
         <v>18.9</v>
       </c>
-      <c r="F172" s="25" t="n">
-        <f aca="false">G172*I172</f>
+      <c r="G172" s="25" t="n">
+        <f aca="false">H172*J172</f>
         <v>1692.01058201058</v>
       </c>
-      <c r="G172" s="10" t="n">
+      <c r="H172" s="10" t="n">
         <v>22.6</v>
       </c>
-      <c r="H172" s="11" t="n">
-        <f aca="false">F172/D172</f>
+      <c r="I172" s="11" t="n">
+        <f aca="false">G172/E172</f>
         <v>1.1957671957672</v>
       </c>
-      <c r="I172" s="10" t="n">
-        <f aca="false">D172/E172</f>
+      <c r="J172" s="10" t="n">
+        <f aca="false">E172/F172</f>
         <v>74.8677248677249</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="B173" s="9" t="n">
+      <c r="B173" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="C173" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D173" s="9" t="n">
+      <c r="D173" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="9" t="n">
         <v>1210</v>
       </c>
-      <c r="E173" s="10" t="n">
+      <c r="F173" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="F173" s="25" t="n">
-        <f aca="false">G173*I173</f>
+      <c r="G173" s="25" t="n">
+        <f aca="false">H173*J173</f>
         <v>1019.85714285714</v>
       </c>
-      <c r="G173" s="10" t="n">
+      <c r="H173" s="10" t="n">
         <v>17.7</v>
       </c>
-      <c r="H173" s="11" t="n">
-        <f aca="false">F173/D173</f>
+      <c r="I173" s="11" t="n">
+        <f aca="false">G173/E173</f>
         <v>0.842857142857143</v>
       </c>
-      <c r="I173" s="10" t="n">
-        <f aca="false">D173/E173</f>
+      <c r="J173" s="10" t="n">
+        <f aca="false">E173/F173</f>
         <v>57.6190476190476</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="n">
         <v>36</v>
       </c>
-      <c r="B174" s="9" t="n">
+      <c r="B174" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C174" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="C174" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D174" s="9" t="n">
+      <c r="D174" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E174" s="9" t="n">
         <v>1614</v>
       </c>
-      <c r="E174" s="10" t="n">
+      <c r="F174" s="10" t="n">
         <v>22.7</v>
       </c>
-      <c r="F174" s="25" t="n">
-        <f aca="false">G174*I174</f>
+      <c r="G174" s="25" t="n">
+        <f aca="false">H174*J174</f>
         <v>1471.79735682819</v>
       </c>
-      <c r="G174" s="10" t="n">
+      <c r="H174" s="10" t="n">
         <v>20.7</v>
       </c>
-      <c r="H174" s="11" t="n">
-        <f aca="false">F174/D174</f>
+      <c r="I174" s="11" t="n">
+        <f aca="false">G174/E174</f>
         <v>0.911894273127753</v>
       </c>
-      <c r="I174" s="10" t="n">
-        <f aca="false">D174/E174</f>
+      <c r="J174" s="10" t="n">
+        <f aca="false">E174/F174</f>
         <v>71.1013215859031</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="n">
         <v>37</v>
       </c>
-      <c r="B175" s="9" t="n">
+      <c r="B175" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C175" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="C175" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D175" s="9" t="n">
+      <c r="D175" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E175" s="9" t="n">
         <v>1029</v>
       </c>
-      <c r="E175" s="10" t="n">
+      <c r="F175" s="10" t="n">
         <v>15.4</v>
       </c>
-      <c r="F175" s="25" t="n">
-        <f aca="false">G175*I175</f>
+      <c r="G175" s="25" t="n">
+        <f aca="false">H175*J175</f>
         <v>1035.68181818182</v>
       </c>
-      <c r="G175" s="10" t="n">
+      <c r="H175" s="10" t="n">
         <v>15.5</v>
       </c>
-      <c r="H175" s="11" t="n">
-        <f aca="false">F175/D175</f>
+      <c r="I175" s="11" t="n">
+        <f aca="false">G175/E175</f>
         <v>1.00649350649351</v>
       </c>
-      <c r="I175" s="10" t="n">
-        <f aca="false">D175/E175</f>
+      <c r="J175" s="10" t="n">
+        <f aca="false">E175/F175</f>
         <v>66.8181818181818</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="n">
         <v>38</v>
       </c>
-      <c r="B176" s="9" t="n">
+      <c r="B176" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C176" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="C176" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D176" s="9" t="n">
+      <c r="D176" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E176" s="9" t="n">
         <v>1881</v>
       </c>
-      <c r="E176" s="10" t="n">
+      <c r="F176" s="10" t="n">
         <v>22.4</v>
       </c>
-      <c r="F176" s="25" t="n">
-        <f aca="false">G176*I176</f>
+      <c r="G176" s="25" t="n">
+        <f aca="false">H176*J176</f>
         <v>2284.07142857143</v>
       </c>
-      <c r="G176" s="10" t="n">
+      <c r="H176" s="10" t="n">
         <v>27.2</v>
       </c>
-      <c r="H176" s="11" t="n">
-        <f aca="false">F176/D176</f>
+      <c r="I176" s="11" t="n">
+        <f aca="false">G176/E176</f>
         <v>1.21428571428571</v>
       </c>
-      <c r="I176" s="10" t="n">
-        <f aca="false">D176/E176</f>
+      <c r="J176" s="10" t="n">
+        <f aca="false">E176/F176</f>
         <v>83.9732142857143</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="n">
         <v>39</v>
       </c>
-      <c r="B177" s="9" t="n">
+      <c r="B177" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C177" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="C177" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D177" s="9" t="n">
+      <c r="D177" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="9" t="n">
         <v>1397</v>
       </c>
-      <c r="E177" s="10" t="n">
+      <c r="F177" s="10" t="n">
         <v>16.6</v>
       </c>
-      <c r="F177" s="25" t="n">
-        <f aca="false">G177*I177</f>
+      <c r="G177" s="25" t="n">
+        <f aca="false">H177*J177</f>
         <v>1481.15662650602</v>
       </c>
-      <c r="G177" s="10" t="n">
+      <c r="H177" s="10" t="n">
         <v>17.6</v>
       </c>
-      <c r="H177" s="11" t="n">
-        <f aca="false">F177/D177</f>
+      <c r="I177" s="11" t="n">
+        <f aca="false">G177/E177</f>
         <v>1.06024096385542</v>
       </c>
-      <c r="I177" s="10" t="n">
-        <f aca="false">D177/E177</f>
+      <c r="J177" s="10" t="n">
+        <f aca="false">E177/F177</f>
         <v>84.1566265060241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="9" t="n">
         <v>40</v>
       </c>
-      <c r="B178" s="9" t="n">
+      <c r="B178" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="C178" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D178" s="9" t="n">
+      <c r="D178" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178" s="9" t="n">
         <v>1432</v>
       </c>
-      <c r="E178" s="10" t="n">
+      <c r="F178" s="10" t="n">
         <v>19.6</v>
       </c>
-      <c r="F178" s="25" t="n">
-        <f aca="false">G178*I178</f>
+      <c r="G178" s="25" t="n">
+        <f aca="false">H178*J178</f>
         <v>1548.89795918367</v>
       </c>
-      <c r="G178" s="10" t="n">
+      <c r="H178" s="10" t="n">
         <v>21.2</v>
       </c>
-      <c r="H178" s="11" t="n">
-        <f aca="false">F178/D178</f>
+      <c r="I178" s="11" t="n">
+        <f aca="false">G178/E178</f>
         <v>1.08163265306122</v>
       </c>
-      <c r="I178" s="10" t="n">
-        <f aca="false">D178/E178</f>
+      <c r="J178" s="10" t="n">
+        <f aca="false">E178/F178</f>
         <v>73.0612244897959</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="B179" s="9" t="n">
+      <c r="B179" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C179" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="C179" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D179" s="9" t="n">
+      <c r="D179" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="9" t="n">
         <v>1226</v>
       </c>
-      <c r="E179" s="10" t="n">
+      <c r="F179" s="10" t="n">
         <v>15.5</v>
       </c>
-      <c r="F179" s="25" t="n">
-        <f aca="false">G179*I179</f>
+      <c r="G179" s="25" t="n">
+        <f aca="false">H179*J179</f>
         <v>1297.18709677419</v>
       </c>
-      <c r="G179" s="10" t="n">
+      <c r="H179" s="10" t="n">
         <v>16.4</v>
       </c>
-      <c r="H179" s="11" t="n">
-        <f aca="false">F179/D179</f>
+      <c r="I179" s="11" t="n">
+        <f aca="false">G179/E179</f>
         <v>1.05806451612903</v>
       </c>
-      <c r="I179" s="10" t="n">
-        <f aca="false">D179/E179</f>
+      <c r="J179" s="10" t="n">
+        <f aca="false">E179/F179</f>
         <v>79.0967741935484</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
-      <c r="A180" s="29" t="n">
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="B180" s="29" t="n">
+      <c r="B180" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C180" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="C180" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D180" s="29" t="n">
+      <c r="D180" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E180" s="9" t="n">
         <v>1028</v>
       </c>
-      <c r="E180" s="29" t="n">
+      <c r="F180" s="9" t="n">
         <v>15.4</v>
       </c>
-      <c r="F180" s="31" t="n">
-        <f aca="false">G180*I180</f>
+      <c r="G180" s="25" t="n">
+        <f aca="false">H180*J180</f>
         <v>834.415584415584</v>
       </c>
-      <c r="G180" s="30" t="n">
+      <c r="H180" s="10" t="n">
         <v>12.5</v>
       </c>
-      <c r="H180" s="32" t="n">
-        <f aca="false">F180/D180</f>
+      <c r="I180" s="11" t="n">
+        <f aca="false">G180/E180</f>
         <v>0.811688311688312</v>
       </c>
-      <c r="I180" s="30" t="n">
-        <f aca="false">D180/E180</f>
+      <c r="J180" s="10" t="n">
+        <f aca="false">E180/F180</f>
         <v>66.7532467532468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="B181" s="9" t="n">
+      <c r="B181" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C181" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="C181" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D181" s="9" t="n">
+      <c r="D181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E181" s="9" t="n">
         <v>812</v>
       </c>
-      <c r="E181" s="9" t="n">
+      <c r="F181" s="9" t="n">
         <v>15.8</v>
       </c>
-      <c r="F181" s="25" t="n">
-        <f aca="false">G181*I181</f>
+      <c r="G181" s="25" t="n">
+        <f aca="false">H181*J181</f>
         <v>873.670886075949</v>
       </c>
-      <c r="G181" s="10" t="n">
+      <c r="H181" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="H181" s="11" t="n">
-        <f aca="false">F181/D181</f>
+      <c r="I181" s="11" t="n">
+        <f aca="false">G181/E181</f>
         <v>1.07594936708861</v>
       </c>
-      <c r="I181" s="10" t="n">
-        <f aca="false">D181/E181</f>
+      <c r="J181" s="10" t="n">
+        <f aca="false">E181/F181</f>
         <v>51.3924050632911</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="B182" s="9" t="n">
+      <c r="B182" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C182" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="C182" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D182" s="9" t="n">
+      <c r="D182" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E182" s="9" t="n">
         <v>1004</v>
       </c>
-      <c r="E182" s="9" t="n">
+      <c r="F182" s="9" t="n">
         <v>16.1</v>
       </c>
-      <c r="F182" s="25" t="n">
-        <f aca="false">G182*I182</f>
+      <c r="G182" s="25" t="n">
+        <f aca="false">H182*J182</f>
         <v>991.527950310559</v>
       </c>
-      <c r="G182" s="10" t="n">
+      <c r="H182" s="10" t="n">
         <v>15.9</v>
       </c>
-      <c r="H182" s="11" t="n">
-        <f aca="false">F182/D182</f>
+      <c r="I182" s="11" t="n">
+        <f aca="false">G182/E182</f>
         <v>0.987577639751553</v>
       </c>
-      <c r="I182" s="10" t="n">
-        <f aca="false">D182/E182</f>
+      <c r="J182" s="10" t="n">
+        <f aca="false">E182/F182</f>
         <v>62.360248447205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="n">
         <v>45</v>
       </c>
-      <c r="B183" s="9" t="n">
+      <c r="B183" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C183" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="C183" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D183" s="9" t="n">
+      <c r="D183" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="9" t="n">
         <v>1131</v>
       </c>
-      <c r="E183" s="9" t="n">
+      <c r="F183" s="9" t="n">
         <v>14.5</v>
       </c>
-      <c r="F183" s="25" t="n">
-        <f aca="false">G183*I183</f>
+      <c r="G183" s="25" t="n">
+        <f aca="false">H183*J183</f>
         <v>1528.8</v>
       </c>
-      <c r="G183" s="10" t="n">
+      <c r="H183" s="10" t="n">
         <v>19.6</v>
       </c>
-      <c r="H183" s="11" t="n">
-        <f aca="false">F183/D183</f>
+      <c r="I183" s="11" t="n">
+        <f aca="false">G183/E183</f>
         <v>1.35172413793103</v>
       </c>
-      <c r="I183" s="10" t="n">
-        <f aca="false">D183/E183</f>
+      <c r="J183" s="10" t="n">
+        <f aca="false">E183/F183</f>
         <v>78</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="9" t="n">
         <v>46</v>
       </c>
-      <c r="B184" s="9" t="n">
+      <c r="B184" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C184" s="9" t="n">
         <v>66</v>
       </c>
-      <c r="C184" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D184" s="9" t="n">
+      <c r="D184" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="9" t="n">
         <v>1444</v>
       </c>
-      <c r="E184" s="9" t="n">
+      <c r="F184" s="9" t="n">
         <v>19.8</v>
       </c>
-      <c r="F184" s="25" t="n">
-        <f aca="false">G184*I184</f>
+      <c r="G184" s="25" t="n">
+        <f aca="false">H184*J184</f>
         <v>867.858585858586</v>
       </c>
-      <c r="G184" s="10" t="n">
+      <c r="H184" s="10" t="n">
         <v>11.9</v>
       </c>
-      <c r="H184" s="11" t="n">
-        <f aca="false">F184/D184</f>
+      <c r="I184" s="11" t="n">
+        <f aca="false">G184/E184</f>
         <v>0.601010101010101</v>
       </c>
-      <c r="I184" s="10" t="n">
-        <f aca="false">D184/E184</f>
+      <c r="J184" s="10" t="n">
+        <f aca="false">E184/F184</f>
         <v>72.9292929292929</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="n">
         <v>47</v>
       </c>
-      <c r="B185" s="9" t="n">
+      <c r="B185" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C185" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="C185" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D185" s="9" t="n">
+      <c r="D185" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E185" s="9" t="n">
         <v>1051</v>
       </c>
-      <c r="E185" s="9" t="n">
+      <c r="F185" s="9" t="n">
         <v>16.7</v>
       </c>
-      <c r="F185" s="25" t="n">
-        <f aca="false">G185*I185</f>
+      <c r="G185" s="25" t="n">
+        <f aca="false">H185*J185</f>
         <v>1107.64071856287</v>
       </c>
-      <c r="G185" s="10" t="n">
+      <c r="H185" s="10" t="n">
         <v>17.6</v>
       </c>
-      <c r="H185" s="11" t="n">
-        <f aca="false">F185/D185</f>
+      <c r="I185" s="11" t="n">
+        <f aca="false">G185/E185</f>
         <v>1.05389221556886</v>
       </c>
-      <c r="I185" s="10" t="n">
-        <f aca="false">D185/E185</f>
+      <c r="J185" s="10" t="n">
+        <f aca="false">E185/F185</f>
         <v>62.934131736527</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="n">
         <v>48</v>
       </c>
-      <c r="B186" s="9" t="n">
+      <c r="B186" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C186" s="9" t="n">
         <v>68</v>
       </c>
-      <c r="C186" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D186" s="9" t="n">
+      <c r="D186" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" s="9" t="n">
         <v>1019</v>
       </c>
-      <c r="E186" s="9" t="n">
+      <c r="F186" s="9" t="n">
         <v>12.8</v>
       </c>
-      <c r="F186" s="25" t="n">
-        <f aca="false">G186*I186</f>
+      <c r="G186" s="25" t="n">
+        <f aca="false">H186*J186</f>
         <v>1273.75</v>
       </c>
-      <c r="G186" s="10" t="n">
+      <c r="H186" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="H186" s="11" t="n">
-        <f aca="false">F186/D186</f>
+      <c r="I186" s="11" t="n">
+        <f aca="false">G186/E186</f>
         <v>1.25</v>
       </c>
-      <c r="I186" s="10" t="n">
-        <f aca="false">D186/E186</f>
+      <c r="J186" s="10" t="n">
+        <f aca="false">E186/F186</f>
         <v>79.609375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="n">
         <v>49</v>
       </c>
-      <c r="B187" s="9" t="n">
+      <c r="B187" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C187" s="9" t="n">
         <v>70</v>
       </c>
-      <c r="C187" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D187" s="9" t="n">
+      <c r="D187" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="9" t="n">
         <v>1003</v>
       </c>
-      <c r="E187" s="9" t="n">
+      <c r="F187" s="9" t="n">
         <v>13.6</v>
       </c>
-      <c r="F187" s="25" t="n">
-        <f aca="false">G187*I187</f>
+      <c r="G187" s="25" t="n">
+        <f aca="false">H187*J187</f>
         <v>1194.75</v>
       </c>
-      <c r="G187" s="10" t="n">
+      <c r="H187" s="10" t="n">
         <v>16.2</v>
       </c>
-      <c r="H187" s="11" t="n">
-        <f aca="false">F187/D187</f>
+      <c r="I187" s="11" t="n">
+        <f aca="false">G187/E187</f>
         <v>1.19117647058824</v>
       </c>
-      <c r="I187" s="10" t="n">
-        <f aca="false">D187/E187</f>
+      <c r="J187" s="10" t="n">
+        <f aca="false">E187/F187</f>
         <v>73.75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="n">
         <v>50</v>
       </c>
-      <c r="B188" s="9" t="n">
+      <c r="B188" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="C188" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D188" s="9" t="n">
+      <c r="D188" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="9" t="n">
         <v>1509</v>
       </c>
-      <c r="E188" s="9" t="n">
+      <c r="F188" s="9" t="n">
         <v>18.2</v>
       </c>
-      <c r="F188" s="25" t="n">
-        <f aca="false">G188*I188</f>
+      <c r="G188" s="25" t="n">
+        <f aca="false">H188*J188</f>
         <v>1202.22527472527</v>
       </c>
-      <c r="G188" s="10" t="n">
+      <c r="H188" s="10" t="n">
         <v>14.5</v>
       </c>
-      <c r="H188" s="11" t="n">
-        <f aca="false">F188/D188</f>
+      <c r="I188" s="11" t="n">
+        <f aca="false">G188/E188</f>
         <v>0.796703296703297</v>
       </c>
-      <c r="I188" s="10" t="n">
-        <f aca="false">D188/E188</f>
+      <c r="J188" s="10" t="n">
+        <f aca="false">E188/F188</f>
         <v>82.9120879120879</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="n">
         <v>51</v>
       </c>
-      <c r="B189" s="9" t="n">
+      <c r="B189" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="C189" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D189" s="9" t="n">
+      <c r="D189" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" s="9" t="n">
         <v>1283</v>
       </c>
-      <c r="E189" s="9" t="n">
+      <c r="F189" s="9" t="n">
         <v>19.5</v>
       </c>
-      <c r="F189" s="25" t="n">
-        <f aca="false">G189*I189</f>
+      <c r="G189" s="25" t="n">
+        <f aca="false">H189*J189</f>
         <v>1322.47692307692</v>
       </c>
-      <c r="G189" s="10" t="n">
+      <c r="H189" s="10" t="n">
         <v>20.1</v>
       </c>
-      <c r="H189" s="11" t="n">
-        <f aca="false">F189/D189</f>
+      <c r="I189" s="11" t="n">
+        <f aca="false">G189/E189</f>
         <v>1.03076923076923</v>
       </c>
-      <c r="I189" s="10" t="n">
-        <f aca="false">D189/E189</f>
+      <c r="J189" s="10" t="n">
+        <f aca="false">E189/F189</f>
         <v>65.7948717948718</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="n">
         <v>52</v>
       </c>
-      <c r="B190" s="9" t="n">
+      <c r="B190" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C190" s="9" t="n">
         <v>71</v>
       </c>
-      <c r="C190" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D190" s="9" t="n">
+      <c r="D190" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E190" s="9" t="n">
         <v>1110</v>
       </c>
-      <c r="E190" s="9" t="n">
+      <c r="F190" s="9" t="n">
         <v>13.9</v>
       </c>
-      <c r="F190" s="25" t="n">
-        <f aca="false">G190*I190</f>
+      <c r="G190" s="25" t="n">
+        <f aca="false">H190*J190</f>
         <v>1006.18705035971</v>
       </c>
-      <c r="G190" s="10" t="n">
+      <c r="H190" s="10" t="n">
         <v>12.6</v>
       </c>
-      <c r="H190" s="11" t="n">
-        <f aca="false">F190/D190</f>
+      <c r="I190" s="11" t="n">
+        <f aca="false">G190/E190</f>
         <v>0.906474820143885</v>
       </c>
-      <c r="I190" s="10" t="n">
-        <f aca="false">D190/E190</f>
+      <c r="J190" s="10" t="n">
+        <f aca="false">E190/F190</f>
         <v>79.8561151079137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="n">
         <v>53</v>
       </c>
-      <c r="B191" s="9" t="n">
+      <c r="B191" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C191" s="9" t="n">
         <v>72</v>
       </c>
-      <c r="C191" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D191" s="9" t="n">
+      <c r="D191" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E191" s="9" t="n">
         <v>1031</v>
       </c>
-      <c r="E191" s="9" t="n">
+      <c r="F191" s="9" t="n">
         <v>16.1</v>
       </c>
-      <c r="F191" s="25" t="n">
-        <f aca="false">G191*I191</f>
+      <c r="G191" s="25" t="n">
+        <f aca="false">H191*J191</f>
         <v>1107.84472049689</v>
       </c>
-      <c r="G191" s="10" t="n">
+      <c r="H191" s="10" t="n">
         <v>17.3</v>
       </c>
-      <c r="H191" s="11" t="n">
-        <f aca="false">F191/D191</f>
+      <c r="I191" s="11" t="n">
+        <f aca="false">G191/E191</f>
         <v>1.07453416149068</v>
       </c>
-      <c r="I191" s="10" t="n">
-        <f aca="false">D191/E191</f>
+      <c r="J191" s="10" t="n">
+        <f aca="false">E191/F191</f>
         <v>64.0372670807453</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="n">
         <v>54</v>
       </c>
-      <c r="B192" s="9" t="n">
+      <c r="B192" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C192" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="C192" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D192" s="9" t="n">
+      <c r="D192" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="9" t="n">
         <v>1222</v>
       </c>
-      <c r="E192" s="9" t="n">
+      <c r="F192" s="9" t="n">
         <v>17.1</v>
       </c>
-      <c r="F192" s="25" t="n">
-        <f aca="false">G192*I192</f>
+      <c r="G192" s="25" t="n">
+        <f aca="false">H192*J192</f>
         <v>1257.73099415205</v>
       </c>
-      <c r="G192" s="10" t="n">
+      <c r="H192" s="10" t="n">
         <v>17.6</v>
       </c>
-      <c r="H192" s="11" t="n">
-        <f aca="false">F192/D192</f>
+      <c r="I192" s="11" t="n">
+        <f aca="false">G192/E192</f>
         <v>1.02923976608187</v>
       </c>
-      <c r="I192" s="10" t="n">
-        <f aca="false">D192/E192</f>
+      <c r="J192" s="10" t="n">
+        <f aca="false">E192/F192</f>
         <v>71.4619883040936</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="n">
         <v>55</v>
       </c>
-      <c r="B193" s="9" t="n">
+      <c r="B193" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" s="9" t="n">
         <v>75</v>
       </c>
-      <c r="C193" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D193" s="9" t="n">
+      <c r="D193" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E193" s="9" t="n">
         <v>1024</v>
       </c>
-      <c r="E193" s="9" t="n">
+      <c r="F193" s="9" t="n">
         <v>16.4</v>
       </c>
-      <c r="F193" s="25" t="n">
-        <f aca="false">G193*I193</f>
+      <c r="G193" s="25" t="n">
+        <f aca="false">H193*J193</f>
         <v>1048.9756097561</v>
       </c>
-      <c r="G193" s="10" t="n">
+      <c r="H193" s="10" t="n">
         <v>16.8</v>
       </c>
-      <c r="H193" s="11" t="n">
-        <f aca="false">F193/D193</f>
+      <c r="I193" s="11" t="n">
+        <f aca="false">G193/E193</f>
         <v>1.02439024390244</v>
       </c>
-      <c r="I193" s="10" t="n">
-        <f aca="false">D193/E193</f>
+      <c r="J193" s="10" t="n">
+        <f aca="false">E193/F193</f>
         <v>62.4390243902439</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="B194" s="9" t="n">
+      <c r="B194" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="9" t="n">
         <v>76</v>
       </c>
-      <c r="C194" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D194" s="9" t="n">
+      <c r="D194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E194" s="9" t="n">
         <v>849</v>
       </c>
-      <c r="E194" s="9" t="n">
+      <c r="F194" s="9" t="n">
         <v>15.3</v>
       </c>
-      <c r="F194" s="25" t="n">
-        <f aca="false">G194*I194</f>
+      <c r="G194" s="25" t="n">
+        <f aca="false">H194*J194</f>
         <v>893.392156862745</v>
       </c>
-      <c r="G194" s="10" t="n">
+      <c r="H194" s="10" t="n">
         <v>16.1</v>
       </c>
-      <c r="H194" s="11" t="n">
-        <f aca="false">F194/D194</f>
+      <c r="I194" s="11" t="n">
+        <f aca="false">G194/E194</f>
         <v>1.05228758169935</v>
       </c>
-      <c r="I194" s="10" t="n">
-        <f aca="false">D194/E194</f>
+      <c r="J194" s="10" t="n">
+        <f aca="false">E194/F194</f>
         <v>55.4901960784314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="n">
         <v>57</v>
       </c>
-      <c r="B195" s="9" t="n">
+      <c r="B195" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C195" s="9" t="n">
         <v>78</v>
       </c>
-      <c r="C195" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D195" s="9" t="n">
+      <c r="D195" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E195" s="9" t="n">
         <v>1077</v>
       </c>
-      <c r="E195" s="9" t="n">
+      <c r="F195" s="9" t="n">
         <v>17.8</v>
       </c>
-      <c r="F195" s="25" t="n">
-        <f aca="false">G195*I195</f>
+      <c r="G195" s="25" t="n">
+        <f aca="false">H195*J195</f>
         <v>955.988764044944</v>
       </c>
-      <c r="G195" s="10" t="n">
+      <c r="H195" s="10" t="n">
         <v>15.8</v>
       </c>
-      <c r="H195" s="11" t="n">
-        <f aca="false">F195/D195</f>
+      <c r="I195" s="11" t="n">
+        <f aca="false">G195/E195</f>
         <v>0.887640449438202</v>
       </c>
-      <c r="I195" s="10" t="n">
-        <f aca="false">D195/E195</f>
+      <c r="J195" s="10" t="n">
+        <f aca="false">E195/F195</f>
         <v>60.5056179775281</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="B196" s="9" t="n">
+      <c r="B196" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C196" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="C196" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D196" s="9" t="n">
+      <c r="D196" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E196" s="9" t="n">
         <v>831</v>
       </c>
-      <c r="E196" s="9" t="n">
+      <c r="F196" s="9" t="n">
         <v>13.9</v>
       </c>
-      <c r="F196" s="25" t="n">
-        <f aca="false">G196*I196</f>
+      <c r="G196" s="25" t="n">
+        <f aca="false">H196*J196</f>
         <v>801.107913669065</v>
       </c>
-      <c r="G196" s="10" t="n">
+      <c r="H196" s="10" t="n">
         <v>13.4</v>
       </c>
-      <c r="H196" s="11" t="n">
-        <f aca="false">F196/D196</f>
+      <c r="I196" s="11" t="n">
+        <f aca="false">G196/E196</f>
         <v>0.964028776978417</v>
       </c>
-      <c r="I196" s="10" t="n">
-        <f aca="false">D196/E196</f>
+      <c r="J196" s="10" t="n">
+        <f aca="false">E196/F196</f>
         <v>59.7841726618705</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="B197" s="9" t="n">
+      <c r="B197" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" s="9" t="n">
         <v>79</v>
       </c>
-      <c r="C197" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D197" s="9" t="n">
+      <c r="D197" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E197" s="9" t="n">
         <v>988</v>
       </c>
-      <c r="E197" s="9" t="n">
+      <c r="F197" s="9" t="n">
         <v>14.9</v>
       </c>
-      <c r="F197" s="25" t="n">
-        <f aca="false">G197*I197</f>
+      <c r="G197" s="25" t="n">
+        <f aca="false">H197*J197</f>
         <v>968.107382550335</v>
       </c>
-      <c r="G197" s="10" t="n">
+      <c r="H197" s="10" t="n">
         <v>14.6</v>
       </c>
-      <c r="H197" s="11" t="n">
-        <f aca="false">F197/D197</f>
+      <c r="I197" s="11" t="n">
+        <f aca="false">G197/E197</f>
         <v>0.97986577181208</v>
       </c>
-      <c r="I197" s="10" t="n">
-        <f aca="false">D197/E197</f>
+      <c r="J197" s="10" t="n">
+        <f aca="false">E197/F197</f>
         <v>66.3087248322148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="B198" s="9" t="n">
+      <c r="B198" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C198" s="9" t="n">
         <v>80</v>
       </c>
-      <c r="C198" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D198" s="9" t="n">
+      <c r="D198" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E198" s="9" t="n">
         <v>650</v>
       </c>
-      <c r="E198" s="9" t="n">
+      <c r="F198" s="9" t="n">
         <v>13.8</v>
       </c>
-      <c r="F198" s="25" t="n">
-        <f aca="false">G198*I198</f>
+      <c r="G198" s="25" t="n">
+        <f aca="false">H198*J198</f>
         <v>532.246376811594</v>
       </c>
-      <c r="G198" s="10" t="n">
+      <c r="H198" s="10" t="n">
         <v>11.3</v>
       </c>
-      <c r="H198" s="11" t="n">
-        <f aca="false">F198/D198</f>
+      <c r="I198" s="11" t="n">
+        <f aca="false">G198/E198</f>
         <v>0.818840579710145</v>
       </c>
-      <c r="I198" s="10" t="n">
-        <f aca="false">D198/E198</f>
+      <c r="J198" s="10" t="n">
+        <f aca="false">E198/F198</f>
         <v>47.1014492753623</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="B199" s="9" t="n">
+      <c r="B199" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C199" s="9" t="n">
         <v>84</v>
       </c>
-      <c r="C199" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D199" s="9" t="n">
+      <c r="D199" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E199" s="9" t="n">
         <v>1209</v>
       </c>
-      <c r="E199" s="9" t="n">
+      <c r="F199" s="9" t="n">
         <v>15.9</v>
       </c>
-      <c r="F199" s="25" t="n">
-        <f aca="false">G199*I199</f>
+      <c r="G199" s="25" t="n">
+        <f aca="false">H199*J199</f>
         <v>1459.92452830189</v>
       </c>
-      <c r="G199" s="10" t="n">
+      <c r="H199" s="10" t="n">
         <v>19.2</v>
       </c>
-      <c r="H199" s="11" t="n">
-        <f aca="false">F199/D199</f>
+      <c r="I199" s="11" t="n">
+        <f aca="false">G199/E199</f>
         <v>1.20754716981132</v>
       </c>
-      <c r="I199" s="10" t="n">
-        <f aca="false">D199/E199</f>
+      <c r="J199" s="10" t="n">
+        <f aca="false">E199/F199</f>
         <v>76.0377358490566</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="B200" s="9" t="n">
+      <c r="B200" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C200" s="9" t="n">
         <v>87</v>
       </c>
-      <c r="C200" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D200" s="9" t="n">
+      <c r="D200" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E200" s="9" t="n">
         <v>710</v>
       </c>
-      <c r="E200" s="9" t="n">
+      <c r="F200" s="9" t="n">
         <v>14.2</v>
       </c>
-      <c r="F200" s="25" t="n">
-        <f aca="false">G200*I200</f>
+      <c r="G200" s="25" t="n">
+        <f aca="false">H200*J200</f>
         <v>715</v>
       </c>
-      <c r="G200" s="10" t="n">
+      <c r="H200" s="10" t="n">
         <v>14.3</v>
       </c>
-      <c r="H200" s="11" t="n">
-        <f aca="false">F200/D200</f>
+      <c r="I200" s="11" t="n">
+        <f aca="false">G200/E200</f>
         <v>1.00704225352113</v>
       </c>
-      <c r="I200" s="10" t="n">
-        <f aca="false">D200/E200</f>
+      <c r="J200" s="10" t="n">
+        <f aca="false">E200/F200</f>
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="n">
         <v>63</v>
       </c>
-      <c r="B201" s="9" t="n">
+      <c r="B201" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C201" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="C201" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D201" s="9" t="n">
+      <c r="D201" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E201" s="9" t="n">
         <v>1084</v>
       </c>
-      <c r="E201" s="9" t="n">
+      <c r="F201" s="9" t="n">
         <v>13.8</v>
       </c>
-      <c r="F201" s="25" t="n">
-        <f aca="false">G201*I201</f>
+      <c r="G201" s="25" t="n">
+        <f aca="false">H201*J201</f>
         <v>1311.79710144928</v>
       </c>
-      <c r="G201" s="10" t="n">
+      <c r="H201" s="10" t="n">
         <v>16.7</v>
       </c>
-      <c r="H201" s="11" t="n">
-        <f aca="false">F201/D201</f>
+      <c r="I201" s="11" t="n">
+        <f aca="false">G201/E201</f>
         <v>1.21014492753623</v>
       </c>
-      <c r="I201" s="10" t="n">
-        <f aca="false">D201/E201</f>
+      <c r="J201" s="10" t="n">
+        <f aca="false">E201/F201</f>
         <v>78.5507246376812</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="B202" s="9" t="n">
+      <c r="B202" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C202" s="9" t="n">
         <v>91</v>
       </c>
-      <c r="C202" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D202" s="9" t="n">
+      <c r="D202" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E202" s="9" t="n">
         <v>972</v>
       </c>
-      <c r="E202" s="9" t="n">
+      <c r="F202" s="9" t="n">
         <v>13.9</v>
       </c>
-      <c r="F202" s="25" t="n">
-        <f aca="false">G202*I202</f>
+      <c r="G202" s="25" t="n">
+        <f aca="false">H202*J202</f>
         <v>762.21582733813</v>
       </c>
-      <c r="G202" s="10" t="n">
+      <c r="H202" s="10" t="n">
         <v>10.9</v>
       </c>
-      <c r="H202" s="11" t="n">
-        <f aca="false">F202/D202</f>
+      <c r="I202" s="11" t="n">
+        <f aca="false">G202/E202</f>
         <v>0.784172661870504</v>
       </c>
-      <c r="I202" s="10" t="n">
-        <f aca="false">D202/E202</f>
+      <c r="J202" s="10" t="n">
+        <f aca="false">E202/F202</f>
         <v>69.9280575539568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="B203" s="9" t="n">
+      <c r="B203" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C203" s="9" t="n">
         <v>91</v>
       </c>
-      <c r="C203" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D203" s="9" t="n">
+      <c r="D203" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E203" s="9" t="n">
         <v>676</v>
       </c>
-      <c r="E203" s="9" t="n">
+      <c r="F203" s="9" t="n">
         <v>16.9</v>
       </c>
-      <c r="F203" s="25" t="n">
-        <f aca="false">G203*I203</f>
+      <c r="G203" s="25" t="n">
+        <f aca="false">H203*J203</f>
         <v>500</v>
       </c>
-      <c r="G203" s="10" t="n">
+      <c r="H203" s="10" t="n">
         <v>12.5</v>
       </c>
-      <c r="H203" s="11" t="n">
-        <f aca="false">F203/D203</f>
+      <c r="I203" s="11" t="n">
+        <f aca="false">G203/E203</f>
         <v>0.739644970414201</v>
       </c>
-      <c r="I203" s="10" t="n">
-        <f aca="false">D203/E203</f>
+      <c r="J203" s="10" t="n">
+        <f aca="false">E203/F203</f>
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
